--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf18</t>
+  </si>
+  <si>
+    <t>Tnfrsf18</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf18</t>
-  </si>
-  <si>
-    <t>Tnfrsf18</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1244153333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.373246</v>
+      </c>
+      <c r="I2">
+        <v>0.1599094129708596</v>
+      </c>
+      <c r="J2">
+        <v>0.1599094129708596</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.2127573333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.638272</v>
-      </c>
-      <c r="I2">
-        <v>0.2697773932434768</v>
-      </c>
-      <c r="J2">
-        <v>0.2697773932434768</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.7663813333333334</v>
+        <v>0.387697</v>
       </c>
       <c r="N2">
-        <v>2.299144</v>
+        <v>1.163091</v>
       </c>
       <c r="O2">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791312</v>
       </c>
       <c r="P2">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791316</v>
       </c>
       <c r="Q2">
-        <v>0.1630532487964444</v>
+        <v>0.04823545148733334</v>
       </c>
       <c r="R2">
-        <v>1.467479239168</v>
+        <v>0.434119063386</v>
       </c>
       <c r="S2">
-        <v>0.05697640179744651</v>
+        <v>0.01525853512687511</v>
       </c>
       <c r="T2">
-        <v>0.05697640179744651</v>
+        <v>0.01525853512687512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2127573333333333</v>
+        <v>0.1244153333333333</v>
       </c>
       <c r="H3">
-        <v>0.638272</v>
+        <v>0.373246</v>
       </c>
       <c r="I3">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="J3">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.709598</v>
       </c>
       <c r="O3">
-        <v>0.6163392034509715</v>
+        <v>0.5504547430588297</v>
       </c>
       <c r="P3">
-        <v>0.6163392034509714</v>
+        <v>0.5504547430588298</v>
       </c>
       <c r="Q3">
-        <v>0.4758387260728889</v>
+        <v>0.2782589572342222</v>
       </c>
       <c r="R3">
-        <v>4.282548534656</v>
+        <v>2.504330615108</v>
       </c>
       <c r="S3">
-        <v>0.166274383660764</v>
+        <v>0.08802289482956278</v>
       </c>
       <c r="T3">
-        <v>0.166274383660764</v>
+        <v>0.0880228948295628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2127573333333333</v>
+        <v>0.1244153333333333</v>
       </c>
       <c r="H4">
-        <v>0.638272</v>
+        <v>0.373246</v>
       </c>
       <c r="I4">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="J4">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5271876666666667</v>
+        <v>0.998142</v>
       </c>
       <c r="N4">
-        <v>1.581563</v>
+        <v>2.994426</v>
       </c>
       <c r="O4">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="P4">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="Q4">
-        <v>0.1121630421262222</v>
+        <v>0.124184169644</v>
       </c>
       <c r="R4">
-        <v>1.009467379136</v>
+        <v>1.117657526796</v>
       </c>
       <c r="S4">
-        <v>0.03919361682259785</v>
+        <v>0.03928373128657013</v>
       </c>
       <c r="T4">
-        <v>0.03919361682259785</v>
+        <v>0.03928373128657014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2127573333333333</v>
+        <v>0.1244153333333333</v>
       </c>
       <c r="H5">
-        <v>0.638272</v>
+        <v>0.373246</v>
       </c>
       <c r="I5">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="J5">
-        <v>0.2697773932434768</v>
+        <v>0.1599094129708596</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09863500000000001</v>
+        <v>0.4406919999999999</v>
       </c>
       <c r="N5">
-        <v>0.295905</v>
+        <v>1.322076</v>
       </c>
       <c r="O5">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="P5">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="Q5">
-        <v>0.02098531957333333</v>
+        <v>0.05482884207733332</v>
       </c>
       <c r="R5">
-        <v>0.18886787616</v>
+        <v>0.4934595786959999</v>
       </c>
       <c r="S5">
-        <v>0.007332990962668461</v>
+        <v>0.01734425172785151</v>
       </c>
       <c r="T5">
-        <v>0.007332990962668461</v>
+        <v>0.01734425172785151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01350933333333333</v>
+        <v>0.2127573333333333</v>
       </c>
       <c r="H6">
-        <v>0.04052799999999999</v>
+        <v>0.638272</v>
       </c>
       <c r="I6">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551691</v>
       </c>
       <c r="J6">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551692</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7663813333333334</v>
+        <v>0.387697</v>
       </c>
       <c r="N6">
-        <v>2.299144</v>
+        <v>1.163091</v>
       </c>
       <c r="O6">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791312</v>
       </c>
       <c r="P6">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791316</v>
       </c>
       <c r="Q6">
-        <v>0.01035330089244444</v>
+        <v>0.08248537986133334</v>
       </c>
       <c r="R6">
-        <v>0.09317970803199999</v>
+        <v>0.742368418752</v>
       </c>
       <c r="S6">
-        <v>0.003617798700314148</v>
+        <v>0.02609296745980086</v>
       </c>
       <c r="T6">
-        <v>0.003617798700314148</v>
+        <v>0.02609296745980087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.01350933333333333</v>
+        <v>0.2127573333333333</v>
       </c>
       <c r="H7">
-        <v>0.04052799999999999</v>
+        <v>0.638272</v>
       </c>
       <c r="I7">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551691</v>
       </c>
       <c r="J7">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.709598</v>
       </c>
       <c r="O7">
-        <v>0.6163392034509715</v>
+        <v>0.5504547430588297</v>
       </c>
       <c r="P7">
-        <v>0.6163392034509714</v>
+        <v>0.5504547430588298</v>
       </c>
       <c r="Q7">
-        <v>0.03021406530488889</v>
+        <v>0.4758387260728889</v>
       </c>
       <c r="R7">
-        <v>0.271926587744</v>
+        <v>4.282548534656</v>
       </c>
       <c r="S7">
-        <v>0.0105578314903418</v>
+        <v>0.15052418278737</v>
       </c>
       <c r="T7">
-        <v>0.0105578314903418</v>
+        <v>0.15052418278737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.01350933333333333</v>
+        <v>0.2127573333333333</v>
       </c>
       <c r="H8">
-        <v>0.04052799999999999</v>
+        <v>0.638272</v>
       </c>
       <c r="I8">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551691</v>
       </c>
       <c r="J8">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551692</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5271876666666667</v>
+        <v>0.998142</v>
       </c>
       <c r="N8">
-        <v>1.581563</v>
+        <v>2.994426</v>
       </c>
       <c r="O8">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="P8">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="Q8">
-        <v>0.007121953918222222</v>
+        <v>0.212362030208</v>
       </c>
       <c r="R8">
-        <v>0.06409758526399999</v>
+        <v>1.911258271872</v>
       </c>
       <c r="S8">
-        <v>0.002488655154207368</v>
+        <v>0.06717742651158133</v>
       </c>
       <c r="T8">
-        <v>0.002488655154207368</v>
+        <v>0.06717742651158136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.01350933333333333</v>
+        <v>0.2127573333333333</v>
       </c>
       <c r="H9">
-        <v>0.04052799999999999</v>
+        <v>0.638272</v>
       </c>
       <c r="I9">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551691</v>
       </c>
       <c r="J9">
-        <v>0.01712990416839784</v>
+        <v>0.2734542388551692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09863500000000001</v>
+        <v>0.4406919999999999</v>
       </c>
       <c r="N9">
-        <v>0.295905</v>
+        <v>1.322076</v>
       </c>
       <c r="O9">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="P9">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="Q9">
-        <v>0.001332493093333333</v>
+        <v>0.09376045474133331</v>
       </c>
       <c r="R9">
-        <v>0.01199243784</v>
+        <v>0.8438440926719998</v>
       </c>
       <c r="S9">
-        <v>0.0004656188235345234</v>
+        <v>0.02965966209641694</v>
       </c>
       <c r="T9">
-        <v>0.0004656188235345234</v>
+        <v>0.02965966209641695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5623736666666667</v>
+        <v>0.4408636666666667</v>
       </c>
       <c r="H10">
-        <v>1.687121</v>
+        <v>1.322591</v>
       </c>
       <c r="I10">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="J10">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7663813333333334</v>
+        <v>0.387697</v>
       </c>
       <c r="N10">
-        <v>2.299144</v>
+        <v>1.163091</v>
       </c>
       <c r="O10">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791312</v>
       </c>
       <c r="P10">
-        <v>0.2111978365289665</v>
+        <v>0.09541986830791316</v>
       </c>
       <c r="Q10">
-        <v>0.4309926804915556</v>
+        <v>0.1709215209756667</v>
       </c>
       <c r="R10">
-        <v>3.878934124424001</v>
+        <v>1.538293688781</v>
       </c>
       <c r="S10">
-        <v>0.1506036360312058</v>
+        <v>0.05406836572123715</v>
       </c>
       <c r="T10">
-        <v>0.1506036360312058</v>
+        <v>0.05406836572123717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5623736666666667</v>
+        <v>0.4408636666666667</v>
       </c>
       <c r="H11">
-        <v>1.687121</v>
+        <v>1.322591</v>
       </c>
       <c r="I11">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="J11">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.709598</v>
       </c>
       <c r="O11">
-        <v>0.6163392034509715</v>
+        <v>0.5504547430588297</v>
       </c>
       <c r="P11">
-        <v>0.6163392034509714</v>
+        <v>0.5504547430588298</v>
       </c>
       <c r="Q11">
-        <v>1.257767076373111</v>
+        <v>0.9860059920464446</v>
       </c>
       <c r="R11">
-        <v>11.319903687358</v>
+        <v>8.874053928418</v>
       </c>
       <c r="S11">
-        <v>0.4395069882998657</v>
+        <v>0.311907665441897</v>
       </c>
       <c r="T11">
-        <v>0.4395069882998656</v>
+        <v>0.311907665441897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5623736666666667</v>
+        <v>0.4408636666666667</v>
       </c>
       <c r="H12">
-        <v>1.687121</v>
+        <v>1.322591</v>
       </c>
       <c r="I12">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="J12">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5271876666666667</v>
+        <v>0.998142</v>
       </c>
       <c r="N12">
-        <v>1.581563</v>
+        <v>2.994426</v>
       </c>
       <c r="O12">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="P12">
-        <v>0.1452813238032336</v>
+        <v>0.2456624069636779</v>
       </c>
       <c r="Q12">
-        <v>0.2964764611247778</v>
+        <v>0.4400445419740001</v>
       </c>
       <c r="R12">
-        <v>2.668288150123</v>
+        <v>3.960400877766</v>
       </c>
       <c r="S12">
-        <v>0.1035990518264284</v>
+        <v>0.1392012491655264</v>
       </c>
       <c r="T12">
-        <v>0.1035990518264284</v>
+        <v>0.1392012491655265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5623736666666667</v>
+        <v>0.4408636666666667</v>
       </c>
       <c r="H13">
-        <v>1.687121</v>
+        <v>1.322591</v>
       </c>
       <c r="I13">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="J13">
-        <v>0.7130927025881253</v>
+        <v>0.5666363481739713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09863500000000001</v>
+        <v>0.4406919999999999</v>
       </c>
       <c r="N13">
-        <v>0.295905</v>
+        <v>1.322076</v>
       </c>
       <c r="O13">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="P13">
-        <v>0.02718163621682845</v>
+        <v>0.1084629816695792</v>
       </c>
       <c r="Q13">
-        <v>0.05546972661166667</v>
+        <v>0.1942850909906667</v>
       </c>
       <c r="R13">
-        <v>0.4992275395050001</v>
+        <v>1.748565818916</v>
       </c>
       <c r="S13">
-        <v>0.01938302643062546</v>
+        <v>0.06145906784531074</v>
       </c>
       <c r="T13">
-        <v>0.01938302643062546</v>
+        <v>0.06145906784531076</v>
       </c>
     </row>
   </sheetData>
